--- a/1.Supplementary/Supplementary 4.xlsx
+++ b/1.Supplementary/Supplementary 4.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hkuhk-my.sharepoint.com/personal/iguibert_hku_hk/Documents/Research/Publications/2021-SIBER-CLAMS/1.June24_clams_paper/1_For_publication/10.Sup/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hkuhk-my.sharepoint.com/personal/iguibert_hku_hk/Documents/Research/Publications/2021-SIBER-CLAMS/1.June24_clams_paper/1_For_publication/18. Communication Biology/Revision/Sup/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="13_ncr:1_{836C0BF8-AC88-ED44-B267-AD8F45DA71FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{89FB9724-78A3-C048-8907-283ABDF1ADAE}"/>
+  <xr:revisionPtr revIDLastSave="21" documentId="13_ncr:1_{836C0BF8-AC88-ED44-B267-AD8F45DA71FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E6268DF3-C648-A944-8BCD-FB64DD26DD12}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="25600" windowHeight="14580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12680" yWindow="-18760" windowWidth="25600" windowHeight="14580" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -39,15 +40,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="57">
-  <si>
-    <t>Seq_ID</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="108">
   <si>
     <t>Genus</t>
-  </si>
-  <si>
-    <t>Type profile</t>
   </si>
   <si>
     <t>Sem_Hh_1</t>
@@ -212,13 +207,174 @@
     <t xml:space="preserve"> 
  Supplementary 4: 
  16 most abundant IT2S type profiles from the symbionts of 18 giant clams (6 species: Hippopus hippopus (Hh), Hippopus porcellanus (Hp), Tridacna derasa (Td), Tridacna gigas (Tg), Tridacna maxima (Tm) and Tridacna squamosa (Ts); 2 locations: Sem: Semirara, Sil: Silaqui)</t>
+  </si>
+  <si>
+    <t>H. hippopus</t>
+  </si>
+  <si>
+    <t>H. porcellanus</t>
+  </si>
+  <si>
+    <t>T. derasa</t>
+  </si>
+  <si>
+    <t>T. gigas</t>
+  </si>
+  <si>
+    <t>T. maxima</t>
+  </si>
+  <si>
+    <t>T. squamosa</t>
+  </si>
+  <si>
+    <t>Sequences</t>
+  </si>
+  <si>
+    <t>Profile</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ Supplementary 4: 
+ Sequences accession numbers</t>
+  </si>
+  <si>
+    <t>SampleID</t>
+  </si>
+  <si>
+    <t>SRA (sequence Read Archive)</t>
+  </si>
+  <si>
+    <t>BioSample</t>
+  </si>
+  <si>
+    <t>BioProject</t>
+  </si>
+  <si>
+    <t>Site</t>
+  </si>
+  <si>
+    <t>SRR15234613</t>
+  </si>
+  <si>
+    <t>SAMN20367967</t>
+  </si>
+  <si>
+    <t>PRJNA749183</t>
+  </si>
+  <si>
+    <t>Semirara</t>
+  </si>
+  <si>
+    <t>SRR15234612</t>
+  </si>
+  <si>
+    <t>SAMN20367968</t>
+  </si>
+  <si>
+    <t>SRR15234603</t>
+  </si>
+  <si>
+    <t>SAMN20367969</t>
+  </si>
+  <si>
+    <t>SRR15234602</t>
+  </si>
+  <si>
+    <t>SAMN20367970</t>
+  </si>
+  <si>
+    <t>SRR15234601</t>
+  </si>
+  <si>
+    <t>SAMN20367971</t>
+  </si>
+  <si>
+    <t>SRR15234600</t>
+  </si>
+  <si>
+    <t>SAMN20367972</t>
+  </si>
+  <si>
+    <t>SRR15234610</t>
+  </si>
+  <si>
+    <t>SAMN20367978</t>
+  </si>
+  <si>
+    <t>SRR15234596</t>
+  </si>
+  <si>
+    <t>SAMN20367976</t>
+  </si>
+  <si>
+    <t>SRR15234611</t>
+  </si>
+  <si>
+    <t>SAMN20367977</t>
+  </si>
+  <si>
+    <t>SRR15234609</t>
+  </si>
+  <si>
+    <t>SAMN20367979</t>
+  </si>
+  <si>
+    <t>SRR15234608</t>
+  </si>
+  <si>
+    <t>SAMN20367980</t>
+  </si>
+  <si>
+    <t>SRR15234607</t>
+  </si>
+  <si>
+    <t>SAMN20367981</t>
+  </si>
+  <si>
+    <t>SRR34069339</t>
+  </si>
+  <si>
+    <t>SAMN49506094</t>
+  </si>
+  <si>
+    <t>Silaqui</t>
+  </si>
+  <si>
+    <t>SRR34069338</t>
+  </si>
+  <si>
+    <t>SAMN49506095</t>
+  </si>
+  <si>
+    <t>SRR34069337</t>
+  </si>
+  <si>
+    <t>SAMN49506096</t>
+  </si>
+  <si>
+    <t>SRR34069344</t>
+  </si>
+  <si>
+    <t>SAMN49506124</t>
+  </si>
+  <si>
+    <t>SRR34069343</t>
+  </si>
+  <si>
+    <t>SAMN49506125</t>
+  </si>
+  <si>
+    <t>SRR34069342</t>
+  </si>
+  <si>
+    <t>SAMN49506126</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -231,21 +387,31 @@
       <name val="Calibri (Headings)"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color rgb="FF212121"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -270,15 +436,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -496,8 +671,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U985"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -515,1136 +690,1167 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="D3" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
-      <c r="S1" s="5"/>
-      <c r="T1" s="5"/>
-      <c r="U1" s="5"/>
-    </row>
-    <row r="3" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="1" t="s">
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="E4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="F4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="G4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="H4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="I4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="J4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="K4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="L4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="M4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="N4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="O4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="M3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N3" s="1" t="s">
+      <c r="P4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="Q4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="P3" s="1" t="s">
+      <c r="R4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="Q3" s="1" t="s">
+      <c r="S4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="R3" s="1" t="s">
+      <c r="T4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="S3" s="1" t="s">
+      <c r="U4" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="T3" s="1" t="s">
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="U3" s="1" t="s">
+      <c r="B5" s="6" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="4" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
+      <c r="C5" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>71901</v>
+      </c>
+      <c r="F5">
+        <v>7614</v>
+      </c>
+      <c r="G5">
+        <v>274</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>1925</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>8116</v>
+      </c>
+      <c r="T5">
+        <v>6885</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="B6" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="3">
-        <v>0</v>
-      </c>
-      <c r="E4" s="3">
-        <v>71901</v>
-      </c>
-      <c r="F4" s="3">
-        <v>7614</v>
-      </c>
-      <c r="G4" s="3">
-        <v>274</v>
-      </c>
-      <c r="H4" s="3">
-        <v>0</v>
-      </c>
-      <c r="I4" s="3">
-        <v>1925</v>
-      </c>
-      <c r="J4" s="3">
-        <v>0</v>
-      </c>
-      <c r="K4" s="3">
-        <v>0</v>
-      </c>
-      <c r="L4" s="3">
-        <v>0</v>
-      </c>
-      <c r="M4" s="3">
-        <v>0</v>
-      </c>
-      <c r="N4" s="3">
-        <v>0</v>
-      </c>
-      <c r="O4" s="3">
-        <v>0</v>
-      </c>
-      <c r="P4" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="3">
-        <v>0</v>
-      </c>
-      <c r="R4" s="3">
-        <v>0</v>
-      </c>
-      <c r="S4" s="3">
-        <v>8116</v>
-      </c>
-      <c r="T4" s="3">
-        <v>6885</v>
-      </c>
-      <c r="U4" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>1653</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>6053</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="3" t="s">
+      <c r="B7" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="3">
-        <v>0</v>
-      </c>
-      <c r="E5" s="3">
-        <v>0</v>
-      </c>
-      <c r="F5" s="3">
-        <v>0</v>
-      </c>
-      <c r="G5" s="3">
-        <v>0</v>
-      </c>
-      <c r="H5" s="3">
-        <v>1653</v>
-      </c>
-      <c r="I5" s="3">
-        <v>0</v>
-      </c>
-      <c r="J5" s="3">
-        <v>0</v>
-      </c>
-      <c r="K5" s="3">
-        <v>0</v>
-      </c>
-      <c r="L5" s="3">
-        <v>0</v>
-      </c>
-      <c r="M5" s="3">
-        <v>0</v>
-      </c>
-      <c r="N5" s="3">
-        <v>0</v>
-      </c>
-      <c r="O5" s="3">
-        <v>6053</v>
-      </c>
-      <c r="P5" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="3">
-        <v>0</v>
-      </c>
-      <c r="R5" s="3">
-        <v>0</v>
-      </c>
-      <c r="S5" s="3">
-        <v>0</v>
-      </c>
-      <c r="T5" s="3">
-        <v>0</v>
-      </c>
-      <c r="U5" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>226</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="3" t="s">
+      <c r="B8" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="3">
-        <v>0</v>
-      </c>
-      <c r="E6" s="3">
-        <v>0</v>
-      </c>
-      <c r="F6" s="3">
-        <v>0</v>
-      </c>
-      <c r="G6" s="3">
-        <v>0</v>
-      </c>
-      <c r="H6" s="3">
-        <v>0</v>
-      </c>
-      <c r="I6" s="3">
-        <v>0</v>
-      </c>
-      <c r="J6" s="3">
-        <v>0</v>
-      </c>
-      <c r="K6" s="3">
-        <v>0</v>
-      </c>
-      <c r="L6" s="3">
-        <v>0</v>
-      </c>
-      <c r="M6" s="3">
-        <v>0</v>
-      </c>
-      <c r="N6" s="3">
-        <v>0</v>
-      </c>
-      <c r="O6" s="3">
-        <v>0</v>
-      </c>
-      <c r="P6" s="3">
-        <v>226</v>
-      </c>
-      <c r="Q6" s="3">
-        <v>0</v>
-      </c>
-      <c r="R6" s="3">
-        <v>0</v>
-      </c>
-      <c r="S6" s="3">
-        <v>0</v>
-      </c>
-      <c r="T6" s="3">
-        <v>0</v>
-      </c>
-      <c r="U6" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
+      <c r="C8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8">
+        <v>81492</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>110896</v>
+      </c>
+      <c r="G8">
+        <v>86032</v>
+      </c>
+      <c r="H8">
+        <v>80893</v>
+      </c>
+      <c r="I8">
+        <v>141445</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>74195</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>64747</v>
+      </c>
+      <c r="T8">
+        <v>72478</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A9" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" s="3" t="s">
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>55652</v>
+      </c>
+      <c r="Q9">
+        <v>52701</v>
+      </c>
+      <c r="R9">
+        <v>65193</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A10" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="3">
-        <v>0</v>
-      </c>
-      <c r="E7" s="3">
-        <v>0</v>
-      </c>
-      <c r="F7" s="3">
-        <v>0</v>
-      </c>
-      <c r="G7" s="3">
-        <v>0</v>
-      </c>
-      <c r="H7" s="3">
-        <v>0</v>
-      </c>
-      <c r="I7" s="3">
-        <v>0</v>
-      </c>
-      <c r="J7" s="3">
-        <v>0</v>
-      </c>
-      <c r="K7" s="3">
-        <v>0</v>
-      </c>
-      <c r="L7" s="3">
-        <v>0</v>
-      </c>
-      <c r="M7" s="3">
-        <v>0</v>
-      </c>
-      <c r="N7" s="3">
-        <v>0</v>
-      </c>
-      <c r="O7" s="3">
-        <v>0</v>
-      </c>
-      <c r="P7" s="3">
-        <v>55652</v>
-      </c>
-      <c r="Q7" s="3">
-        <v>52701</v>
-      </c>
-      <c r="R7" s="3">
-        <v>65193</v>
-      </c>
-      <c r="S7" s="3">
-        <v>0</v>
-      </c>
-      <c r="T7" s="3">
-        <v>0</v>
-      </c>
-      <c r="U7" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" s="3">
-        <v>0</v>
-      </c>
-      <c r="E8" s="3">
-        <v>0</v>
-      </c>
-      <c r="F8" s="3">
-        <v>0</v>
-      </c>
-      <c r="G8" s="3">
-        <v>0</v>
-      </c>
-      <c r="H8" s="3">
-        <v>0</v>
-      </c>
-      <c r="I8" s="3">
-        <v>0</v>
-      </c>
-      <c r="J8" s="3">
-        <v>0</v>
-      </c>
-      <c r="K8" s="3">
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
         <v>77281</v>
       </c>
-      <c r="L8" s="3">
+      <c r="L10">
         <v>72326</v>
       </c>
-      <c r="M8" s="3">
-        <v>0</v>
-      </c>
-      <c r="N8" s="3">
-        <v>0</v>
-      </c>
-      <c r="O8" s="3">
-        <v>0</v>
-      </c>
-      <c r="P8" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>0</v>
-      </c>
-      <c r="R8" s="3">
-        <v>0</v>
-      </c>
-      <c r="S8" s="3">
-        <v>0</v>
-      </c>
-      <c r="T8" s="3">
-        <v>0</v>
-      </c>
-      <c r="U8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A11" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="3" t="s">
+      <c r="B11" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>86158</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A12" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="3">
-        <v>81492</v>
-      </c>
-      <c r="E9" s="3">
-        <v>0</v>
-      </c>
-      <c r="F9" s="3">
-        <v>110896</v>
-      </c>
-      <c r="G9" s="3">
-        <v>86032</v>
-      </c>
-      <c r="H9" s="3">
-        <v>80893</v>
-      </c>
-      <c r="I9" s="3">
-        <v>141445</v>
-      </c>
-      <c r="J9" s="3">
-        <v>0</v>
-      </c>
-      <c r="K9" s="3">
-        <v>0</v>
-      </c>
-      <c r="L9" s="3">
-        <v>0</v>
-      </c>
-      <c r="M9" s="3">
-        <v>0</v>
-      </c>
-      <c r="N9" s="3">
-        <v>0</v>
-      </c>
-      <c r="O9" s="3">
-        <v>74195</v>
-      </c>
-      <c r="P9" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="3">
-        <v>0</v>
-      </c>
-      <c r="R9" s="3">
-        <v>0</v>
-      </c>
-      <c r="S9" s="3">
-        <v>64747</v>
-      </c>
-      <c r="T9" s="3">
-        <v>72478</v>
-      </c>
-      <c r="U9" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="3" t="s">
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>81281</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A13" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" t="s">
         <v>36</v>
       </c>
-      <c r="D10" s="3">
-        <v>0</v>
-      </c>
-      <c r="E10" s="3">
-        <v>0</v>
-      </c>
-      <c r="F10" s="3">
-        <v>0</v>
-      </c>
-      <c r="G10" s="3">
-        <v>0</v>
-      </c>
-      <c r="H10" s="3">
-        <v>0</v>
-      </c>
-      <c r="I10" s="3">
-        <v>0</v>
-      </c>
-      <c r="J10" s="3">
-        <v>0</v>
-      </c>
-      <c r="K10" s="3">
-        <v>0</v>
-      </c>
-      <c r="L10" s="3">
-        <v>0</v>
-      </c>
-      <c r="M10" s="3">
-        <v>81281</v>
-      </c>
-      <c r="N10" s="3">
-        <v>0</v>
-      </c>
-      <c r="O10" s="3">
-        <v>0</v>
-      </c>
-      <c r="P10" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="3">
-        <v>0</v>
-      </c>
-      <c r="R10" s="3">
-        <v>0</v>
-      </c>
-      <c r="S10" s="3">
-        <v>0</v>
-      </c>
-      <c r="T10" s="3">
-        <v>0</v>
-      </c>
-      <c r="U10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="3" t="s">
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>59206</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A14" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" t="s">
         <v>38</v>
       </c>
-      <c r="D11" s="3">
-        <v>0</v>
-      </c>
-      <c r="E11" s="3">
-        <v>0</v>
-      </c>
-      <c r="F11" s="3">
-        <v>0</v>
-      </c>
-      <c r="G11" s="3">
-        <v>0</v>
-      </c>
-      <c r="H11" s="3">
-        <v>0</v>
-      </c>
-      <c r="I11" s="3">
-        <v>0</v>
-      </c>
-      <c r="J11" s="3">
-        <v>59206</v>
-      </c>
-      <c r="K11" s="3">
-        <v>0</v>
-      </c>
-      <c r="L11" s="3">
-        <v>0</v>
-      </c>
-      <c r="M11" s="3">
-        <v>0</v>
-      </c>
-      <c r="N11" s="3">
-        <v>0</v>
-      </c>
-      <c r="O11" s="3">
-        <v>0</v>
-      </c>
-      <c r="P11" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="3">
-        <v>0</v>
-      </c>
-      <c r="R11" s="3">
-        <v>0</v>
-      </c>
-      <c r="S11" s="3">
-        <v>0</v>
-      </c>
-      <c r="T11" s="3">
-        <v>0</v>
-      </c>
-      <c r="U11" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" s="3" t="s">
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>7314</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A15" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" t="s">
         <v>40</v>
       </c>
-      <c r="D12" s="3">
-        <v>0</v>
-      </c>
-      <c r="E12" s="3">
-        <v>7314</v>
-      </c>
-      <c r="F12" s="3">
-        <v>0</v>
-      </c>
-      <c r="G12" s="3">
-        <v>0</v>
-      </c>
-      <c r="H12" s="3">
-        <v>0</v>
-      </c>
-      <c r="I12" s="3">
-        <v>0</v>
-      </c>
-      <c r="J12" s="3">
-        <v>0</v>
-      </c>
-      <c r="K12" s="3">
-        <v>0</v>
-      </c>
-      <c r="L12" s="3">
-        <v>0</v>
-      </c>
-      <c r="M12" s="3">
-        <v>0</v>
-      </c>
-      <c r="N12" s="3">
-        <v>0</v>
-      </c>
-      <c r="O12" s="3">
-        <v>0</v>
-      </c>
-      <c r="P12" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="3">
-        <v>0</v>
-      </c>
-      <c r="R12" s="3">
-        <v>0</v>
-      </c>
-      <c r="S12" s="3">
-        <v>0</v>
-      </c>
-      <c r="T12" s="3">
-        <v>0</v>
-      </c>
-      <c r="U12" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D13" s="3">
-        <v>0</v>
-      </c>
-      <c r="E13" s="3">
-        <v>0</v>
-      </c>
-      <c r="F13" s="3">
-        <v>0</v>
-      </c>
-      <c r="G13" s="3">
-        <v>0</v>
-      </c>
-      <c r="H13" s="3">
-        <v>0</v>
-      </c>
-      <c r="I13" s="3">
-        <v>0</v>
-      </c>
-      <c r="J13" s="3">
-        <v>0</v>
-      </c>
-      <c r="K13" s="3">
-        <v>0</v>
-      </c>
-      <c r="L13" s="3">
-        <v>0</v>
-      </c>
-      <c r="M13" s="3">
-        <v>0</v>
-      </c>
-      <c r="N13" s="3">
-        <v>0</v>
-      </c>
-      <c r="O13" s="3">
-        <v>0</v>
-      </c>
-      <c r="P13" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="3">
-        <v>0</v>
-      </c>
-      <c r="R13" s="3">
-        <v>0</v>
-      </c>
-      <c r="S13" s="3">
-        <v>0</v>
-      </c>
-      <c r="T13" s="3">
-        <v>0</v>
-      </c>
-      <c r="U13" s="3">
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+      <c r="U15">
         <v>1234</v>
       </c>
     </row>
-    <row r="14" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A16" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" s="3" t="s">
+      <c r="B16" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3">
-        <v>86158</v>
-      </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
-      <c r="U14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
+      <c r="C16" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>13440</v>
+      </c>
+      <c r="Q16">
+        <v>23855</v>
+      </c>
+      <c r="R16">
+        <v>4202</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <v>56788</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A17" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" t="s">
         <v>45</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D15" s="3">
-        <v>0</v>
-      </c>
-      <c r="E15" s="3">
-        <v>0</v>
-      </c>
-      <c r="F15" s="3">
-        <v>0</v>
-      </c>
-      <c r="G15" s="3">
-        <v>0</v>
-      </c>
-      <c r="H15" s="3">
-        <v>0</v>
-      </c>
-      <c r="I15" s="3">
-        <v>0</v>
-      </c>
-      <c r="J15" s="3">
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
         <v>18091</v>
       </c>
-      <c r="K15" s="3">
+      <c r="K17">
         <v>1013</v>
       </c>
-      <c r="L15" s="3">
-        <v>0</v>
-      </c>
-      <c r="M15" s="3">
-        <v>0</v>
-      </c>
-      <c r="N15" s="3">
-        <v>0</v>
-      </c>
-      <c r="O15" s="3">
-        <v>0</v>
-      </c>
-      <c r="P15" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="3">
-        <v>0</v>
-      </c>
-      <c r="R15" s="3">
-        <v>0</v>
-      </c>
-      <c r="S15" s="3">
-        <v>0</v>
-      </c>
-      <c r="T15" s="3">
-        <v>0</v>
-      </c>
-      <c r="U15" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A18" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C16" s="3" t="s">
+      <c r="B18" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18">
+        <v>911</v>
+      </c>
+      <c r="E18">
+        <v>2936</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <v>0</v>
+      </c>
+      <c r="U18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A19" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" t="s">
+        <v>51</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+      <c r="T19">
+        <v>2740</v>
+      </c>
+      <c r="U19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A20" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" t="s">
         <v>49</v>
       </c>
-      <c r="D16" s="3">
-        <v>0</v>
-      </c>
-      <c r="E16" s="3">
-        <v>0</v>
-      </c>
-      <c r="F16" s="3">
-        <v>0</v>
-      </c>
-      <c r="G16" s="3">
-        <v>0</v>
-      </c>
-      <c r="H16" s="3">
-        <v>0</v>
-      </c>
-      <c r="I16" s="3">
-        <v>0</v>
-      </c>
-      <c r="J16" s="3">
-        <v>0</v>
-      </c>
-      <c r="K16" s="3">
-        <v>0</v>
-      </c>
-      <c r="L16" s="3">
-        <v>0</v>
-      </c>
-      <c r="M16" s="3">
-        <v>0</v>
-      </c>
-      <c r="N16" s="3">
-        <v>0</v>
-      </c>
-      <c r="O16" s="3">
-        <v>0</v>
-      </c>
-      <c r="P16" s="3">
-        <v>13440</v>
-      </c>
-      <c r="Q16" s="3">
-        <v>23855</v>
-      </c>
-      <c r="R16" s="3">
-        <v>4202</v>
-      </c>
-      <c r="S16" s="3">
-        <v>0</v>
-      </c>
-      <c r="T16" s="3">
-        <v>0</v>
-      </c>
-      <c r="U16" s="3">
-        <v>56788</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D17" s="3">
-        <v>0</v>
-      </c>
-      <c r="E17" s="3">
-        <v>0</v>
-      </c>
-      <c r="F17" s="3">
-        <v>0</v>
-      </c>
-      <c r="G17" s="3">
-        <v>0</v>
-      </c>
-      <c r="H17" s="3">
-        <v>0</v>
-      </c>
-      <c r="I17" s="3">
-        <v>0</v>
-      </c>
-      <c r="J17" s="3">
-        <v>0</v>
-      </c>
-      <c r="K17" s="3">
-        <v>0</v>
-      </c>
-      <c r="L17" s="3">
-        <v>0</v>
-      </c>
-      <c r="M17" s="3">
-        <v>0</v>
-      </c>
-      <c r="N17" s="3">
-        <v>0</v>
-      </c>
-      <c r="O17" s="3">
-        <v>0</v>
-      </c>
-      <c r="P17" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>0</v>
-      </c>
-      <c r="R17" s="3">
-        <v>0</v>
-      </c>
-      <c r="S17" s="3">
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
         <v>205</v>
       </c>
-      <c r="T17" s="3">
-        <v>0</v>
-      </c>
-      <c r="U17" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D18" s="3">
-        <v>0</v>
-      </c>
-      <c r="E18" s="3">
-        <v>0</v>
-      </c>
-      <c r="F18" s="3">
-        <v>0</v>
-      </c>
-      <c r="G18" s="3">
-        <v>0</v>
-      </c>
-      <c r="H18" s="3">
-        <v>0</v>
-      </c>
-      <c r="I18" s="3">
-        <v>0</v>
-      </c>
-      <c r="J18" s="3">
-        <v>0</v>
-      </c>
-      <c r="K18" s="3">
-        <v>0</v>
-      </c>
-      <c r="L18" s="3">
-        <v>0</v>
-      </c>
-      <c r="M18" s="3">
-        <v>0</v>
-      </c>
-      <c r="N18" s="3">
-        <v>0</v>
-      </c>
-      <c r="O18" s="3">
-        <v>0</v>
-      </c>
-      <c r="P18" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>0</v>
-      </c>
-      <c r="R18" s="3">
-        <v>0</v>
-      </c>
-      <c r="S18" s="3">
-        <v>0</v>
-      </c>
-      <c r="T18" s="3">
-        <v>2740</v>
-      </c>
-      <c r="U18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D19" s="3">
-        <v>911</v>
-      </c>
-      <c r="E19" s="3">
-        <v>2936</v>
-      </c>
-      <c r="F19" s="3">
-        <v>0</v>
-      </c>
-      <c r="G19" s="3">
-        <v>0</v>
-      </c>
-      <c r="H19" s="3">
-        <v>0</v>
-      </c>
-      <c r="I19" s="3">
-        <v>0</v>
-      </c>
-      <c r="J19" s="3">
-        <v>0</v>
-      </c>
-      <c r="K19" s="3">
-        <v>0</v>
-      </c>
-      <c r="L19" s="3">
-        <v>0</v>
-      </c>
-      <c r="M19" s="3">
-        <v>0</v>
-      </c>
-      <c r="N19" s="3">
-        <v>0</v>
-      </c>
-      <c r="O19" s="3">
-        <v>0</v>
-      </c>
-      <c r="P19" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="3">
-        <v>0</v>
-      </c>
-      <c r="R19" s="3">
-        <v>0</v>
-      </c>
-      <c r="S19" s="3">
-        <v>0</v>
-      </c>
-      <c r="T19" s="3">
-        <v>0</v>
-      </c>
-      <c r="U19" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="T20">
+        <v>0</v>
+      </c>
+      <c r="U20">
+        <v>0</v>
+      </c>
+    </row>
     <row r="21" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="22" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="23" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2611,10 +2817,387 @@
     <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="7">
     <mergeCell ref="A1:U1"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="P3:R3"/>
+    <mergeCell ref="S3:U3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B85F8801-C4B1-B64C-A940-1DAF0897F2D8}">
+  <dimension ref="A1:U21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="22" customWidth="1"/>
+    <col min="3" max="3" width="18.5" customWidth="1"/>
+    <col min="4" max="4" width="19.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="E4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A5" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="E5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A6" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="E6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A7" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="E7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A8" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C8" t="s">
+        <v>80</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="E8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A9" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>81</v>
+      </c>
+      <c r="C9" t="s">
+        <v>82</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="E9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C10" t="s">
+        <v>84</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="E10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A11" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C11" t="s">
+        <v>86</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="E11" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>87</v>
+      </c>
+      <c r="C12" t="s">
+        <v>88</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="E12" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
+        <v>89</v>
+      </c>
+      <c r="C13" t="s">
+        <v>90</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="E13" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A14" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
+        <v>91</v>
+      </c>
+      <c r="C14" t="s">
+        <v>92</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="E14" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A15" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" t="s">
+        <v>93</v>
+      </c>
+      <c r="C15" t="s">
+        <v>94</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="E15" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" t="s">
+        <v>95</v>
+      </c>
+      <c r="C16" t="s">
+        <v>96</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" t="s">
+        <v>98</v>
+      </c>
+      <c r="C17" t="s">
+        <v>99</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" t="s">
+        <v>100</v>
+      </c>
+      <c r="C18" t="s">
+        <v>101</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" t="s">
+        <v>102</v>
+      </c>
+      <c r="C19" t="s">
+        <v>103</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" t="s">
+        <v>104</v>
+      </c>
+      <c r="C20" t="s">
+        <v>105</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" t="s">
+        <v>106</v>
+      </c>
+      <c r="C21" t="s">
+        <v>107</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:U1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>